--- a/file/geo/geo.xlsx
+++ b/file/geo/geo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victor/【F】Repository/KWL/file/geo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08585640-66AC-0D4D-AE89-59736E307103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4096A4-4839-EE4B-8757-C7B8D23B7B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="32680" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44748,10 +44748,10 @@
   <dimension ref="A1:AN218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI1" sqref="AI1"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
